--- a/Pricing Logic/modules/manual/cart_rules_1125_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/cart_rules_1125_chunk_1.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,13 +399,3423 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>413</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>88</v>
+      </c>
+      <c r="B3">
         <v>10</v>
+      </c>
+      <c r="C3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>88</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>105</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>105</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>107</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>107</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>126</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>192</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>192</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>206</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>334</v>
+      </c>
+      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>334</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>344</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>344</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>358</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>382</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>409</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>411</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>416</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>418</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>420</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>434</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>436</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>520</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>520</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>589</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>590</v>
+      </c>
+      <c r="B29">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>590</v>
+      </c>
+      <c r="B30">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>590</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>590</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>788</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>942</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>942</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>957</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>958</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>964</v>
+      </c>
+      <c r="B38">
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>964</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>964</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>964</v>
+      </c>
+      <c r="B41">
+        <v>15</v>
+      </c>
+      <c r="C41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>973</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>973</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>990</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>1052</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>1139</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>1139</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>1309</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>1309</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>1324</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>1413</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>1413</v>
+      </c>
+      <c r="B52">
+        <v>16</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>1413</v>
+      </c>
+      <c r="B53">
+        <v>15</v>
+      </c>
+      <c r="C53">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>1413</v>
+      </c>
+      <c r="B54">
+        <v>11</v>
+      </c>
+      <c r="C54">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>1414</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>1414</v>
+      </c>
+      <c r="B56">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>1414</v>
+      </c>
+      <c r="B57">
+        <v>15</v>
+      </c>
+      <c r="C57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>1414</v>
+      </c>
+      <c r="B58">
+        <v>16</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>1514</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>1519</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>1519</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>1523</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>1575</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>1683</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>1701</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>1742</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>1743</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>1744</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>1880</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>1880</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>2049</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>2049</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>2057</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>2057</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>2103</v>
+      </c>
+      <c r="B75">
+        <v>15</v>
+      </c>
+      <c r="C75">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>2103</v>
+      </c>
+      <c r="B76">
+        <v>16</v>
+      </c>
+      <c r="C76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>2103</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>2103</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>2109</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>2109</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>2216</v>
+      </c>
+      <c r="B81">
+        <v>15</v>
+      </c>
+      <c r="C81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>2216</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>2216</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>2216</v>
+      </c>
+      <c r="B84">
+        <v>16</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>2225</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>2225</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>2287</v>
+      </c>
+      <c r="B87">
+        <v>29</v>
+      </c>
+      <c r="C87">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>2287</v>
+      </c>
+      <c r="B88">
+        <v>25</v>
+      </c>
+      <c r="C88">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>2308</v>
+      </c>
+      <c r="B89">
+        <v>29</v>
+      </c>
+      <c r="C89">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>2308</v>
+      </c>
+      <c r="B90">
+        <v>25</v>
+      </c>
+      <c r="C90">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>2325</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>2368</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>2368</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>2369</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>2369</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>2418</v>
+      </c>
+      <c r="B96">
+        <v>80</v>
+      </c>
+      <c r="C96">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>2418</v>
+      </c>
+      <c r="B97">
+        <v>29</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>2421</v>
+      </c>
+      <c r="B98">
+        <v>29</v>
+      </c>
+      <c r="C98">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>2421</v>
+      </c>
+      <c r="B99">
+        <v>80</v>
+      </c>
+      <c r="C99">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>2422</v>
+      </c>
+      <c r="B100">
+        <v>29</v>
+      </c>
+      <c r="C100">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>2422</v>
+      </c>
+      <c r="B101">
+        <v>80</v>
+      </c>
+      <c r="C101">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>2423</v>
+      </c>
+      <c r="B102">
+        <v>29</v>
+      </c>
+      <c r="C102">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>2423</v>
+      </c>
+      <c r="B103">
+        <v>80</v>
+      </c>
+      <c r="C103">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>2438</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>2438</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>2492</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>2744</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>2744</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>2774</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>2778</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>2821</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>2821</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>2859</v>
+      </c>
+      <c r="B113">
+        <v>11</v>
+      </c>
+      <c r="C113">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>2859</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>2859</v>
+      </c>
+      <c r="B115">
+        <v>15</v>
+      </c>
+      <c r="C115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>2859</v>
+      </c>
+      <c r="B116">
+        <v>16</v>
+      </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>2916</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>3028</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>3028</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>3230</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>3257</v>
+      </c>
+      <c r="B121">
+        <v>4</v>
+      </c>
+      <c r="C121">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>3278</v>
+      </c>
+      <c r="B122">
+        <v>29</v>
+      </c>
+      <c r="C122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>3386</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>3429</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>3429</v>
+      </c>
+      <c r="B125">
+        <v>11</v>
+      </c>
+      <c r="C125">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>3429</v>
+      </c>
+      <c r="B126">
+        <v>15</v>
+      </c>
+      <c r="C126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>3429</v>
+      </c>
+      <c r="B127">
+        <v>16</v>
+      </c>
+      <c r="C127">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>3430</v>
+      </c>
+      <c r="B128">
+        <v>15</v>
+      </c>
+      <c r="C128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>3430</v>
+      </c>
+      <c r="B129">
+        <v>16</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>3430</v>
+      </c>
+      <c r="B130">
+        <v>11</v>
+      </c>
+      <c r="C130">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>3430</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>3475</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+      <c r="C132">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>3934</v>
+      </c>
+      <c r="B133">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>4043</v>
+      </c>
+      <c r="B134">
+        <v>29</v>
+      </c>
+      <c r="C134">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>4043</v>
+      </c>
+      <c r="B135">
+        <v>25</v>
+      </c>
+      <c r="C135">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>4176</v>
+      </c>
+      <c r="B136">
+        <v>4</v>
+      </c>
+      <c r="C136">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>4176</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>4372</v>
+      </c>
+      <c r="B138">
+        <v>10</v>
+      </c>
+      <c r="C138">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>4372</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>4728</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>4750</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>5209</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>5209</v>
+      </c>
+      <c r="B143">
+        <v>3</v>
+      </c>
+      <c r="C143">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>5452</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>5734</v>
+      </c>
+      <c r="B145">
+        <v>2</v>
+      </c>
+      <c r="C145">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>5811</v>
+      </c>
+      <c r="B146">
+        <v>3</v>
+      </c>
+      <c r="C146">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>5811</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>5812</v>
+      </c>
+      <c r="B148">
+        <v>3</v>
+      </c>
+      <c r="C148">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>5812</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>5813</v>
+      </c>
+      <c r="B150">
+        <v>3</v>
+      </c>
+      <c r="C150">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>5813</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>6097</v>
+      </c>
+      <c r="B152">
+        <v>80</v>
+      </c>
+      <c r="C152">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>6097</v>
+      </c>
+      <c r="B153">
+        <v>29</v>
+      </c>
+      <c r="C153">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>6359</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>6359</v>
+      </c>
+      <c r="B155">
+        <v>10</v>
+      </c>
+      <c r="C155">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>6360</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>6360</v>
+      </c>
+      <c r="B157">
+        <v>10</v>
+      </c>
+      <c r="C157">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>6494</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>6497</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>6575</v>
+      </c>
+      <c r="B160">
+        <v>3</v>
+      </c>
+      <c r="C160">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>6575</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>7036</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>7084</v>
+      </c>
+      <c r="B163">
+        <v>3</v>
+      </c>
+      <c r="C163">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>7084</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>7191</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>7250</v>
+      </c>
+      <c r="B166">
+        <v>3</v>
+      </c>
+      <c r="C166">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>7250</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>7324</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>7706</v>
+      </c>
+      <c r="B169">
+        <v>2</v>
+      </c>
+      <c r="C169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>8155</v>
+      </c>
+      <c r="B170">
+        <v>25</v>
+      </c>
+      <c r="C170">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>8155</v>
+      </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="C171">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>8157</v>
+      </c>
+      <c r="B172">
+        <v>29</v>
+      </c>
+      <c r="C172">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>8157</v>
+      </c>
+      <c r="B173">
+        <v>80</v>
+      </c>
+      <c r="C173">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>8659</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>8672</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
+      </c>
+      <c r="C175">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>8675</v>
+      </c>
+      <c r="B176">
+        <v>2</v>
+      </c>
+      <c r="C176">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>8676</v>
+      </c>
+      <c r="B177">
+        <v>2</v>
+      </c>
+      <c r="C177">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>8688</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>8688</v>
+      </c>
+      <c r="B179">
+        <v>14</v>
+      </c>
+      <c r="C179">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>8754</v>
+      </c>
+      <c r="B180">
+        <v>2</v>
+      </c>
+      <c r="C180">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>8754</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>8896</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>8923</v>
+      </c>
+      <c r="B183">
+        <v>25</v>
+      </c>
+      <c r="C183">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>8923</v>
+      </c>
+      <c r="B184">
+        <v>29</v>
+      </c>
+      <c r="C184">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>8926</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>8943</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>8943</v>
+      </c>
+      <c r="B187">
+        <v>3</v>
+      </c>
+      <c r="C187">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>8963</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <v>9069</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <v>9082</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <v>9082</v>
+      </c>
+      <c r="B191">
+        <v>3</v>
+      </c>
+      <c r="C191">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <v>9085</v>
+      </c>
+      <c r="B192">
+        <v>29</v>
+      </c>
+      <c r="C192">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <v>9085</v>
+      </c>
+      <c r="B193">
+        <v>25</v>
+      </c>
+      <c r="C193">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <v>9088</v>
+      </c>
+      <c r="B194">
+        <v>29</v>
+      </c>
+      <c r="C194">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
+        <v>9088</v>
+      </c>
+      <c r="B195">
+        <v>25</v>
+      </c>
+      <c r="C195">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <v>9373</v>
+      </c>
+      <c r="B196">
+        <v>5</v>
+      </c>
+      <c r="C196">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197">
+        <v>9507</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198">
+        <v>9507</v>
+      </c>
+      <c r="B198">
+        <v>3</v>
+      </c>
+      <c r="C198">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199">
+        <v>9690</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200">
+        <v>9784</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201">
+        <v>9785</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202">
+        <v>9786</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203">
+        <v>9820</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204">
+        <v>9820</v>
+      </c>
+      <c r="B204">
+        <v>3</v>
+      </c>
+      <c r="C204">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205">
+        <v>9996</v>
+      </c>
+      <c r="B205">
+        <v>29</v>
+      </c>
+      <c r="C205">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206">
+        <v>9996</v>
+      </c>
+      <c r="B206">
+        <v>80</v>
+      </c>
+      <c r="C206">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207">
+        <v>9997</v>
+      </c>
+      <c r="B207">
+        <v>80</v>
+      </c>
+      <c r="C207">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208">
+        <v>9997</v>
+      </c>
+      <c r="B208">
+        <v>29</v>
+      </c>
+      <c r="C208">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209">
+        <v>10147</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210">
+        <v>10406</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211">
+        <v>10406</v>
+      </c>
+      <c r="B211">
+        <v>10</v>
+      </c>
+      <c r="C211">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212">
+        <v>10407</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213">
+        <v>10407</v>
+      </c>
+      <c r="B213">
+        <v>10</v>
+      </c>
+      <c r="C213">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214">
+        <v>10507</v>
+      </c>
+      <c r="B214">
+        <v>2</v>
+      </c>
+      <c r="C214">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215">
+        <v>10529</v>
+      </c>
+      <c r="B215">
+        <v>80</v>
+      </c>
+      <c r="C215">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216">
+        <v>10529</v>
+      </c>
+      <c r="B216">
+        <v>29</v>
+      </c>
+      <c r="C216">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217">
+        <v>10574</v>
+      </c>
+      <c r="B217">
+        <v>3</v>
+      </c>
+      <c r="C217">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218">
+        <v>10574</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219">
+        <v>10580</v>
+      </c>
+      <c r="B219">
+        <v>3</v>
+      </c>
+      <c r="C219">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220">
+        <v>10580</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221">
+        <v>10581</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222">
+        <v>10581</v>
+      </c>
+      <c r="B222">
+        <v>3</v>
+      </c>
+      <c r="C222">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223">
+        <v>10718</v>
+      </c>
+      <c r="B223">
+        <v>29</v>
+      </c>
+      <c r="C223">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224">
+        <v>10718</v>
+      </c>
+      <c r="B224">
+        <v>80</v>
+      </c>
+      <c r="C224">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225">
+        <v>10719</v>
+      </c>
+      <c r="B225">
+        <v>80</v>
+      </c>
+      <c r="C225">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226">
+        <v>10719</v>
+      </c>
+      <c r="B226">
+        <v>29</v>
+      </c>
+      <c r="C226">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227">
+        <v>10993</v>
+      </c>
+      <c r="B227">
+        <v>2</v>
+      </c>
+      <c r="C227">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228">
+        <v>11089</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229">
+        <v>11180</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230">
+        <v>11399</v>
+      </c>
+      <c r="B230">
+        <v>2</v>
+      </c>
+      <c r="C230">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231">
+        <v>11410</v>
+      </c>
+      <c r="B231">
+        <v>29</v>
+      </c>
+      <c r="C231">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232">
+        <v>11425</v>
+      </c>
+      <c r="B232">
+        <v>29</v>
+      </c>
+      <c r="C232">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233">
+        <v>11425</v>
+      </c>
+      <c r="B233">
+        <v>25</v>
+      </c>
+      <c r="C233">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234">
+        <v>11426</v>
+      </c>
+      <c r="B234">
+        <v>29</v>
+      </c>
+      <c r="C234">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235">
+        <v>11426</v>
+      </c>
+      <c r="B235">
+        <v>25</v>
+      </c>
+      <c r="C235">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236">
+        <v>11427</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237">
+        <v>11427</v>
+      </c>
+      <c r="B237">
+        <v>2</v>
+      </c>
+      <c r="C237">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238">
+        <v>11491</v>
+      </c>
+      <c r="B238">
+        <v>2</v>
+      </c>
+      <c r="C238">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239">
+        <v>11690</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240">
+        <v>11690</v>
+      </c>
+      <c r="B240">
+        <v>2</v>
+      </c>
+      <c r="C240">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241">
+        <v>11808</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+      <c r="C241">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242">
+        <v>11812</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243">
+        <v>11846</v>
+      </c>
+      <c r="B243">
+        <v>3</v>
+      </c>
+      <c r="C243">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244">
+        <v>11846</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245">
+        <v>11848</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246">
+        <v>11857</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247">
+        <v>11858</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+      <c r="C247">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248">
+        <v>11859</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249">
+        <v>12043</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250">
+        <v>12241</v>
+      </c>
+      <c r="B250">
+        <v>3</v>
+      </c>
+      <c r="C250">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251">
+        <v>12241</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252">
+        <v>12249</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253">
+        <v>12249</v>
+      </c>
+      <c r="B253">
+        <v>14</v>
+      </c>
+      <c r="C253">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254">
+        <v>12253</v>
+      </c>
+      <c r="B254">
+        <v>3</v>
+      </c>
+      <c r="C254">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255">
+        <v>12295</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256">
+        <v>12295</v>
+      </c>
+      <c r="B256">
+        <v>4</v>
+      </c>
+      <c r="C256">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257">
+        <v>12302</v>
+      </c>
+      <c r="B257">
+        <v>2</v>
+      </c>
+      <c r="C257">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258">
+        <v>12344</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259">
+        <v>12347</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260">
+        <v>12494</v>
+      </c>
+      <c r="B260">
+        <v>3</v>
+      </c>
+      <c r="C260">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261">
+        <v>12494</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262">
+        <v>12506</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263">
+        <v>12571</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264">
+        <v>12654</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265">
+        <v>12656</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266">
+        <v>13030</v>
+      </c>
+      <c r="B266">
+        <v>3</v>
+      </c>
+      <c r="C266">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267">
+        <v>13033</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="C267">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268">
+        <v>13033</v>
+      </c>
+      <c r="B268">
+        <v>3</v>
+      </c>
+      <c r="C268">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269">
+        <v>13034</v>
+      </c>
+      <c r="B269">
+        <v>3</v>
+      </c>
+      <c r="C269">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270">
+        <v>13034</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="C270">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271">
+        <v>13113</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+      <c r="C271">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272">
+        <v>13118</v>
+      </c>
+      <c r="B272">
+        <v>431</v>
+      </c>
+      <c r="C272">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273">
+        <v>13118</v>
+      </c>
+      <c r="B273">
+        <v>2</v>
+      </c>
+      <c r="C273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274">
+        <v>13294</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+      <c r="C274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275">
+        <v>13294</v>
+      </c>
+      <c r="B275">
+        <v>3</v>
+      </c>
+      <c r="C275">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276">
+        <v>13401</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277">
+        <v>13401</v>
+      </c>
+      <c r="B277">
+        <v>3</v>
+      </c>
+      <c r="C277">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278">
+        <v>13494</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="C278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279">
+        <v>13494</v>
+      </c>
+      <c r="B279">
+        <v>3</v>
+      </c>
+      <c r="C279">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280">
+        <v>13928</v>
+      </c>
+      <c r="B280">
+        <v>2</v>
+      </c>
+      <c r="C280">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281">
+        <v>13928</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+      <c r="C281">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282">
+        <v>19932</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="C282">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283">
+        <v>19965</v>
+      </c>
+      <c r="B283">
+        <v>25</v>
+      </c>
+      <c r="C283">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284">
+        <v>19965</v>
+      </c>
+      <c r="B284">
+        <v>29</v>
+      </c>
+      <c r="C284">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285">
+        <v>20680</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+      <c r="C285">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286">
+        <v>20682</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
+      </c>
+      <c r="C286">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287">
+        <v>20977</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+      <c r="C287">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288">
+        <v>21010</v>
+      </c>
+      <c r="B288">
+        <v>2</v>
+      </c>
+      <c r="C288">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289">
+        <v>21712</v>
+      </c>
+      <c r="B289">
+        <v>3</v>
+      </c>
+      <c r="C289">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290">
+        <v>21712</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="C290">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291">
+        <v>21781</v>
+      </c>
+      <c r="B291">
+        <v>2</v>
+      </c>
+      <c r="C291">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292">
+        <v>21798</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+      <c r="C292">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293">
+        <v>21946</v>
+      </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
+      <c r="C293">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294">
+        <v>22316</v>
+      </c>
+      <c r="B294">
+        <v>3</v>
+      </c>
+      <c r="C294">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295">
+        <v>22316</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+      <c r="C295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296">
+        <v>22325</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="C296">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297">
+        <v>22326</v>
+      </c>
+      <c r="B297">
+        <v>1</v>
+      </c>
+      <c r="C297">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298">
+        <v>22327</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+      <c r="C298">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299">
+        <v>22565</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+      <c r="C299">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300">
+        <v>22565</v>
+      </c>
+      <c r="B300">
+        <v>3</v>
+      </c>
+      <c r="C300">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301">
+        <v>22874</v>
+      </c>
+      <c r="B301">
+        <v>3</v>
+      </c>
+      <c r="C301">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302">
+        <v>22874</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+      <c r="C302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303">
+        <v>22973</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+      <c r="C303">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304">
+        <v>23335</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+      <c r="C304">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305">
+        <v>23335</v>
+      </c>
+      <c r="B305">
+        <v>14</v>
+      </c>
+      <c r="C305">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306">
+        <v>23599</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+      <c r="C306">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307">
+        <v>23599</v>
+      </c>
+      <c r="B307">
+        <v>10</v>
+      </c>
+      <c r="C307">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308">
+        <v>23920</v>
+      </c>
+      <c r="B308">
+        <v>2</v>
+      </c>
+      <c r="C308">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309">
+        <v>23994</v>
+      </c>
+      <c r="B309">
+        <v>25</v>
+      </c>
+      <c r="C309">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310">
+        <v>23994</v>
+      </c>
+      <c r="B310">
+        <v>29</v>
+      </c>
+      <c r="C310">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311">
+        <v>24256</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+      <c r="C311">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312">
+        <v>24258</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+      <c r="C312">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/cart_rules_1125_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/cart_rules_1125_chunk_1.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C312"/>
+  <dimension ref="A1:C310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,35 +399,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>150</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -435,21 +435,21 @@
         <v>105</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -457,532 +457,532 @@
         <v>107</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>132</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>334</v>
+        <v>201</v>
       </c>
       <c r="B13">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>334</v>
+        <v>205</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>344</v>
+        <v>206</v>
       </c>
       <c r="B15">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>344</v>
+        <v>224</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>382</v>
+        <v>307</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>141</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>409</v>
+        <v>332</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>411</v>
+        <v>335</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>416</v>
+        <v>335</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>418</v>
+        <v>336</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>420</v>
+        <v>336</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>434</v>
+        <v>336</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>436</v>
+        <v>336</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>520</v>
+        <v>346</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>520</v>
+        <v>346</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>589</v>
+        <v>358</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>590</v>
+        <v>361</v>
       </c>
       <c r="B29">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>590</v>
+        <v>362</v>
       </c>
       <c r="B30">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>590</v>
+        <v>382</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>590</v>
+        <v>409</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>788</v>
+        <v>417</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>942</v>
+        <v>418</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>942</v>
+        <v>448</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>957</v>
+        <v>479</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>958</v>
+        <v>515</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>964</v>
+        <v>515</v>
       </c>
       <c r="B38">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>964</v>
+        <v>523</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>964</v>
+        <v>583</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>964</v>
+        <v>590</v>
       </c>
       <c r="B41">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C41">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>973</v>
+        <v>590</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>150</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>973</v>
+        <v>590</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C43">
-        <v>14</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>990</v>
+        <v>590</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C44">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>1052</v>
+        <v>942</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>1139</v>
+        <v>942</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>1139</v>
+        <v>975</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
       <c r="C47">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>1309</v>
+        <v>975</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>1309</v>
+        <v>990</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>1324</v>
+        <v>1000</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>1413</v>
+        <v>1049</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>1413</v>
+        <v>1050</v>
       </c>
       <c r="B52">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>1413</v>
+        <v>1134</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>1413</v>
+        <v>1163</v>
       </c>
       <c r="B54">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C54">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>1414</v>
+        <v>1163</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -993,161 +993,161 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>1414</v>
+        <v>1309</v>
       </c>
       <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
         <v>11</v>
-      </c>
-      <c r="C56">
-        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>1414</v>
+        <v>1309</v>
       </c>
       <c r="B57">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C57">
-        <v>9</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>1414</v>
+        <v>1407</v>
       </c>
       <c r="B58">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C58">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>1514</v>
+        <v>1407</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>1519</v>
+        <v>1433</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>1519</v>
+        <v>1446</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>1523</v>
+        <v>1683</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>1575</v>
+        <v>1880</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>1683</v>
+        <v>1880</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>1701</v>
+        <v>2049</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>1742</v>
+        <v>2049</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>1743</v>
+        <v>2054</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>1744</v>
+        <v>2054</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>1880</v>
+        <v>2055</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C69">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>1880</v>
+        <v>2055</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -1158,186 +1158,186 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>2049</v>
+        <v>2057</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>2049</v>
+        <v>2057</v>
       </c>
       <c r="B72">
         <v>3</v>
       </c>
       <c r="C72">
-        <v>96</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>2057</v>
+        <v>2108</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>2057</v>
+        <v>2108</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>2103</v>
+        <v>2225</v>
       </c>
       <c r="B75">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C75">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>2103</v>
+        <v>2225</v>
       </c>
       <c r="B76">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C76">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>2103</v>
+        <v>2280</v>
       </c>
       <c r="B77">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C77">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>2103</v>
+        <v>2280</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>2109</v>
+        <v>2322</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>2109</v>
+        <v>2327</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C80">
-        <v>25</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>2216</v>
+        <v>2369</v>
       </c>
       <c r="B81">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C81">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>2216</v>
+        <v>2369</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>2216</v>
+        <v>2421</v>
       </c>
       <c r="B83">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C83">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>2216</v>
+        <v>2421</v>
       </c>
       <c r="B84">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>2225</v>
+        <v>2423</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>2225</v>
+        <v>2423</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="C86">
-        <v>8</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>2287</v>
+        <v>2492</v>
       </c>
       <c r="B87">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C87">
         <v>16</v>
@@ -1345,109 +1345,109 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>2287</v>
+        <v>2726</v>
       </c>
       <c r="B88">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C88">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>2308</v>
+        <v>2726</v>
       </c>
       <c r="B89">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C89">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>2308</v>
+        <v>2729</v>
       </c>
       <c r="B90">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C90">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>2325</v>
+        <v>2729</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C91">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>2368</v>
+        <v>2730</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
       <c r="C92">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>2368</v>
+        <v>2730</v>
       </c>
       <c r="B93">
         <v>3</v>
       </c>
       <c r="C93">
-        <v>84</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>2369</v>
+        <v>2734</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>2369</v>
+        <v>2734</v>
       </c>
       <c r="B95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C95">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>2418</v>
+        <v>2736</v>
       </c>
       <c r="B96">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="C96">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>2418</v>
+        <v>2736</v>
       </c>
       <c r="B97">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -1455,106 +1455,106 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>2421</v>
+        <v>2821</v>
       </c>
       <c r="B98">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C98">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>2421</v>
+        <v>2821</v>
       </c>
       <c r="B99">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="C99">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>2422</v>
+        <v>2878</v>
       </c>
       <c r="B100">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C100">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>2422</v>
+        <v>2879</v>
       </c>
       <c r="B101">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="C101">
-        <v>124</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>2423</v>
+        <v>2935</v>
       </c>
       <c r="B102">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C102">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>2423</v>
+        <v>2992</v>
       </c>
       <c r="B103">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="C103">
-        <v>103</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>2438</v>
+        <v>2992</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C104">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>2438</v>
+        <v>3079</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105">
-        <v>129</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>2492</v>
+        <v>3079</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C106">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>2744</v>
+        <v>3143</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -1565,472 +1565,472 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>2744</v>
+        <v>3143</v>
       </c>
       <c r="B108">
         <v>3</v>
       </c>
       <c r="C108">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>2774</v>
+        <v>3257</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C109">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>2778</v>
+        <v>3258</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>2821</v>
+        <v>3258</v>
       </c>
       <c r="B111">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C111">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>2821</v>
+        <v>3387</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>2859</v>
+        <v>3429</v>
       </c>
       <c r="B113">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C113">
-        <v>76</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>2859</v>
+        <v>3429</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>2859</v>
+        <v>3429</v>
       </c>
       <c r="B115">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C115">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>2859</v>
+        <v>3429</v>
       </c>
       <c r="B116">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C116">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>2916</v>
+        <v>3430</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
       <c r="C117">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>3028</v>
+        <v>3430</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C118">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>3028</v>
+        <v>3430</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>3230</v>
+        <v>3430</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C120">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>3257</v>
+        <v>3976</v>
       </c>
       <c r="B121">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C121">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>3278</v>
+        <v>3976</v>
       </c>
       <c r="B122">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C122">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>3386</v>
+        <v>3983</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C123">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>3429</v>
+        <v>3983</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
       <c r="C124">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>3429</v>
+        <v>3985</v>
       </c>
       <c r="B125">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C125">
-        <v>112</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>3429</v>
+        <v>3985</v>
       </c>
       <c r="B126">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C126">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>3429</v>
+        <v>4232</v>
       </c>
       <c r="B127">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="C127">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>3430</v>
+        <v>4232</v>
       </c>
       <c r="B128">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C128">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>3430</v>
+        <v>4354</v>
       </c>
       <c r="B129">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C129">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>3430</v>
+        <v>5341</v>
       </c>
       <c r="B130">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C130">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>3430</v>
+        <v>5341</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>3475</v>
+        <v>5341</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C132">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>3934</v>
+        <v>5341</v>
       </c>
       <c r="B133">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C133">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>4043</v>
+        <v>5811</v>
       </c>
       <c r="B134">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C134">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>4043</v>
+        <v>5811</v>
       </c>
       <c r="B135">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C135">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>4176</v>
+        <v>5812</v>
       </c>
       <c r="B136">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C136">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>4176</v>
+        <v>5812</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>4372</v>
+        <v>5813</v>
       </c>
       <c r="B138">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C138">
-        <v>99</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>4372</v>
+        <v>5813</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C139">
-        <v>7</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>4728</v>
+        <v>5831</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
       <c r="C140">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>4750</v>
+        <v>5831</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C141">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>5209</v>
+        <v>6098</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>5209</v>
+        <v>6098</v>
       </c>
       <c r="B143">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="C143">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>5452</v>
+        <v>6158</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C144">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>5734</v>
+        <v>6293</v>
       </c>
       <c r="B145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C145">
-        <v>63</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>5811</v>
+        <v>6496</v>
       </c>
       <c r="B146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C146">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>5811</v>
+        <v>6497</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>5812</v>
+        <v>6575</v>
       </c>
       <c r="B148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C148">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>5812</v>
+        <v>6575</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C149">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>5813</v>
+        <v>6805</v>
       </c>
       <c r="B150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C150">
         <v>12</v>
@@ -2038,161 +2038,161 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>5813</v>
+        <v>6935</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>6097</v>
+        <v>6936</v>
       </c>
       <c r="B152">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="C152">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>6097</v>
+        <v>7004</v>
       </c>
       <c r="B153">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C153">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>6359</v>
+        <v>7084</v>
       </c>
       <c r="B154">
         <v>1</v>
       </c>
       <c r="C154">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>6359</v>
+        <v>7084</v>
       </c>
       <c r="B155">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C155">
-        <v>150</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>6360</v>
+        <v>7324</v>
       </c>
       <c r="B156">
         <v>1</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>6360</v>
+        <v>7558</v>
       </c>
       <c r="B157">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C157">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>6494</v>
+        <v>7573</v>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
       <c r="C158">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>6497</v>
+        <v>8023</v>
       </c>
       <c r="B159">
         <v>1</v>
       </c>
       <c r="C159">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>6575</v>
+        <v>8356</v>
       </c>
       <c r="B160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C160">
-        <v>52</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>6575</v>
+        <v>8363</v>
       </c>
       <c r="B161">
         <v>1</v>
       </c>
       <c r="C161">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>7036</v>
+        <v>8364</v>
       </c>
       <c r="B162">
         <v>1</v>
       </c>
       <c r="C162">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>7084</v>
+        <v>8557</v>
       </c>
       <c r="B163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C163">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>7084</v>
+        <v>8557</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>7191</v>
+        <v>8659</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -2203,428 +2203,428 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>7250</v>
+        <v>8672</v>
       </c>
       <c r="B166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C166">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>7250</v>
+        <v>8675</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C167">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>7324</v>
+        <v>8676</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C168">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>7706</v>
+        <v>8754</v>
       </c>
       <c r="B169">
         <v>2</v>
       </c>
       <c r="C169">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>8155</v>
+        <v>8754</v>
       </c>
       <c r="B170">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C170">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>8155</v>
+        <v>8853</v>
       </c>
       <c r="B171">
         <v>2</v>
       </c>
       <c r="C171">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>8157</v>
+        <v>8907</v>
       </c>
       <c r="B172">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C172">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>8157</v>
+        <v>8907</v>
       </c>
       <c r="B173">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="C173">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>8659</v>
+        <v>8923</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C174">
-        <v>13</v>
+        <v>103</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>8672</v>
+        <v>8923</v>
       </c>
       <c r="B175">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C175">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>8675</v>
+        <v>9069</v>
       </c>
       <c r="B176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C176">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>8676</v>
+        <v>9153</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C177">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>8688</v>
+        <v>9153</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C178">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>8688</v>
+        <v>9153</v>
       </c>
       <c r="B179">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C179">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>8754</v>
+        <v>9182</v>
       </c>
       <c r="B180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C180">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>8754</v>
+        <v>9296</v>
       </c>
       <c r="B181">
         <v>1</v>
       </c>
       <c r="C181">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>8896</v>
+        <v>9507</v>
       </c>
       <c r="B182">
         <v>1</v>
       </c>
       <c r="C182">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>8923</v>
+        <v>9507</v>
       </c>
       <c r="B183">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C183">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>8923</v>
+        <v>9608</v>
       </c>
       <c r="B184">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C184">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>8926</v>
+        <v>9613</v>
       </c>
       <c r="B185">
         <v>1</v>
       </c>
       <c r="C185">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>8943</v>
+        <v>9691</v>
       </c>
       <c r="B186">
         <v>1</v>
       </c>
       <c r="C186">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>8943</v>
+        <v>9778</v>
       </c>
       <c r="B187">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C187">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>8963</v>
+        <v>9780</v>
       </c>
       <c r="B188">
         <v>1</v>
       </c>
       <c r="C188">
-        <v>76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>9069</v>
+        <v>9783</v>
       </c>
       <c r="B189">
         <v>1</v>
       </c>
       <c r="C189">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>9082</v>
+        <v>9784</v>
       </c>
       <c r="B190">
         <v>1</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>9082</v>
+        <v>9785</v>
       </c>
       <c r="B191">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C191">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>9085</v>
+        <v>9786</v>
       </c>
       <c r="B192">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C192">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>9085</v>
+        <v>9840</v>
       </c>
       <c r="B193">
         <v>25</v>
       </c>
       <c r="C193">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>9088</v>
+        <v>9840</v>
       </c>
       <c r="B194">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C194">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>9088</v>
+        <v>9960</v>
       </c>
       <c r="B195">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C195">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>9373</v>
+        <v>9960</v>
       </c>
       <c r="B196">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C196">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>9507</v>
+        <v>10093</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C197">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>9507</v>
+        <v>10093</v>
       </c>
       <c r="B198">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C198">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>9690</v>
+        <v>10149</v>
       </c>
       <c r="B199">
         <v>1</v>
       </c>
       <c r="C199">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>9784</v>
+        <v>10149</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C200">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>9785</v>
+        <v>10170</v>
       </c>
       <c r="B201">
         <v>1</v>
       </c>
       <c r="C201">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>9786</v>
+        <v>10254</v>
       </c>
       <c r="B202">
         <v>1</v>
       </c>
       <c r="C202">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>9820</v>
+        <v>10410</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>9820</v>
+        <v>10410</v>
       </c>
       <c r="B204">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C204">
         <v>5</v>
@@ -2632,106 +2632,106 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>9996</v>
+        <v>10448</v>
       </c>
       <c r="B205">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C205">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>9996</v>
+        <v>10448</v>
       </c>
       <c r="B206">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C206">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>9997</v>
+        <v>10450</v>
       </c>
       <c r="B207">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C207">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>9997</v>
+        <v>10450</v>
       </c>
       <c r="B208">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C208">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>10147</v>
+        <v>10452</v>
       </c>
       <c r="B209">
         <v>1</v>
       </c>
       <c r="C209">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>10406</v>
+        <v>10452</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>10406</v>
+        <v>10455</v>
       </c>
       <c r="B211">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C211">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>10407</v>
+        <v>10574</v>
       </c>
       <c r="B212">
         <v>1</v>
       </c>
       <c r="C212">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>10407</v>
+        <v>10574</v>
       </c>
       <c r="B213">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C213">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>10507</v>
+        <v>10993</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -2742,40 +2742,40 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>10529</v>
+        <v>11183</v>
       </c>
       <c r="B215">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="C215">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>10529</v>
+        <v>11271</v>
       </c>
       <c r="B216">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C216">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>10574</v>
+        <v>11403</v>
       </c>
       <c r="B217">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C217">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>10574</v>
+        <v>11450</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2786,428 +2786,428 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>10580</v>
+        <v>11450</v>
       </c>
       <c r="B219">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C219">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>10580</v>
+        <v>11504</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C220">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>10581</v>
+        <v>11611</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>10581</v>
+        <v>11765</v>
       </c>
       <c r="B222">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C222">
-        <v>22</v>
+        <v>117</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>10718</v>
+        <v>11775</v>
       </c>
       <c r="B223">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C223">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>10718</v>
+        <v>11837</v>
       </c>
       <c r="B224">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="C224">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>10719</v>
+        <v>11838</v>
       </c>
       <c r="B225">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="C225">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>10719</v>
+        <v>11846</v>
       </c>
       <c r="B226">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C226">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>10993</v>
+        <v>11846</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C227">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>11089</v>
+        <v>11868</v>
       </c>
       <c r="B228">
         <v>1</v>
       </c>
       <c r="C228">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229">
-        <v>11180</v>
+        <v>11868</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C229">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230">
-        <v>11399</v>
+        <v>11886</v>
       </c>
       <c r="B230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C230">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231">
-        <v>11410</v>
+        <v>11886</v>
       </c>
       <c r="B231">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C231">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232">
-        <v>11425</v>
+        <v>12146</v>
       </c>
       <c r="B232">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C232">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233">
-        <v>11425</v>
+        <v>12150</v>
       </c>
       <c r="B233">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C233">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234">
-        <v>11426</v>
+        <v>12239</v>
       </c>
       <c r="B234">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C234">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235">
-        <v>11426</v>
+        <v>12239</v>
       </c>
       <c r="B235">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C235">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236">
-        <v>11427</v>
+        <v>12241</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C236">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237">
-        <v>11427</v>
+        <v>12241</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C237">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238">
-        <v>11491</v>
+        <v>12344</v>
       </c>
       <c r="B238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C238">
-        <v>150</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239">
-        <v>11690</v>
+        <v>12492</v>
       </c>
       <c r="B239">
         <v>1</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240">
-        <v>11690</v>
+        <v>12492</v>
       </c>
       <c r="B240">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C240">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241">
-        <v>11808</v>
+        <v>12546</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C241">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242">
-        <v>11812</v>
+        <v>12546</v>
       </c>
       <c r="B242">
         <v>1</v>
       </c>
       <c r="C242">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243">
-        <v>11846</v>
+        <v>12563</v>
       </c>
       <c r="B243">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C243">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244">
-        <v>11846</v>
+        <v>12571</v>
       </c>
       <c r="B244">
         <v>1</v>
       </c>
       <c r="C244">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245">
-        <v>11848</v>
+        <v>12573</v>
       </c>
       <c r="B245">
         <v>1</v>
       </c>
       <c r="C245">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246">
-        <v>11857</v>
+        <v>12585</v>
       </c>
       <c r="B246">
         <v>1</v>
       </c>
       <c r="C246">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247">
-        <v>11858</v>
+        <v>12585</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C247">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248">
-        <v>11859</v>
+        <v>12653</v>
       </c>
       <c r="B248">
         <v>1</v>
       </c>
       <c r="C248">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249">
-        <v>12043</v>
+        <v>12721</v>
       </c>
       <c r="B249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C249">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250">
-        <v>12241</v>
+        <v>12923</v>
       </c>
       <c r="B250">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C250">
-        <v>51</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251">
-        <v>12241</v>
+        <v>12925</v>
       </c>
       <c r="B251">
         <v>1</v>
       </c>
       <c r="C251">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252">
-        <v>12249</v>
+        <v>13024</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C252">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253">
-        <v>12249</v>
+        <v>13024</v>
       </c>
       <c r="B253">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C253">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254">
-        <v>12253</v>
+        <v>13025</v>
       </c>
       <c r="B254">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C254">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255">
-        <v>12295</v>
+        <v>13025</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C255">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256">
-        <v>12295</v>
+        <v>13028</v>
       </c>
       <c r="B256">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C256">
-        <v>62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257">
-        <v>12302</v>
+        <v>13037</v>
       </c>
       <c r="B257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C257">
         <v>5</v>
@@ -3215,65 +3215,65 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258">
-        <v>12344</v>
+        <v>13037</v>
       </c>
       <c r="B258">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C258">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259">
-        <v>12347</v>
+        <v>13401</v>
       </c>
       <c r="B259">
         <v>1</v>
       </c>
       <c r="C259">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260">
-        <v>12494</v>
+        <v>13401</v>
       </c>
       <c r="B260">
         <v>3</v>
       </c>
       <c r="C260">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261">
-        <v>12494</v>
+        <v>13498</v>
       </c>
       <c r="B261">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C261">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262">
-        <v>12506</v>
+        <v>13498</v>
       </c>
       <c r="B262">
         <v>1</v>
       </c>
       <c r="C262">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263">
-        <v>12571</v>
+        <v>13928</v>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C263">
         <v>5</v>
@@ -3281,87 +3281,87 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264">
-        <v>12654</v>
+        <v>13928</v>
       </c>
       <c r="B264">
         <v>1</v>
       </c>
       <c r="C264">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265">
-        <v>12656</v>
+        <v>14018</v>
       </c>
       <c r="B265">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C265">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266">
-        <v>13030</v>
+        <v>14018</v>
       </c>
       <c r="B266">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C266">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267">
-        <v>13033</v>
+        <v>14037</v>
       </c>
       <c r="B267">
         <v>1</v>
       </c>
       <c r="C267">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268">
-        <v>13033</v>
+        <v>14037</v>
       </c>
       <c r="B268">
         <v>3</v>
       </c>
       <c r="C268">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269">
-        <v>13034</v>
+        <v>19685</v>
       </c>
       <c r="B269">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C269">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270">
-        <v>13034</v>
+        <v>19687</v>
       </c>
       <c r="B270">
         <v>1</v>
       </c>
       <c r="C270">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271">
-        <v>13113</v>
+        <v>19966</v>
       </c>
       <c r="B271">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C271">
         <v>5</v>
@@ -3369,260 +3369,260 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272">
-        <v>13118</v>
+        <v>19966</v>
       </c>
       <c r="B272">
-        <v>431</v>
+        <v>25</v>
       </c>
       <c r="C272">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273">
-        <v>13118</v>
+        <v>20680</v>
       </c>
       <c r="B273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C273">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274">
-        <v>13294</v>
+        <v>20682</v>
       </c>
       <c r="B274">
         <v>1</v>
       </c>
       <c r="C274">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275">
-        <v>13294</v>
+        <v>21712</v>
       </c>
       <c r="B275">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C275">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276">
-        <v>13401</v>
+        <v>21712</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C276">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277">
-        <v>13401</v>
+        <v>21798</v>
       </c>
       <c r="B277">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C277">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278">
-        <v>13494</v>
+        <v>21946</v>
       </c>
       <c r="B278">
         <v>1</v>
       </c>
       <c r="C278">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279">
-        <v>13494</v>
+        <v>22316</v>
       </c>
       <c r="B279">
         <v>3</v>
       </c>
       <c r="C279">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280">
-        <v>13928</v>
+        <v>22316</v>
       </c>
       <c r="B280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C280">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281">
-        <v>13928</v>
+        <v>22317</v>
       </c>
       <c r="B281">
         <v>1</v>
       </c>
       <c r="C281">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282">
-        <v>19932</v>
+        <v>22317</v>
       </c>
       <c r="B282">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C282">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283">
-        <v>19965</v>
+        <v>22363</v>
       </c>
       <c r="B283">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C283">
-        <v>120</v>
+        <v>12</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284">
-        <v>19965</v>
+        <v>22572</v>
       </c>
       <c r="B284">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C284">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285">
-        <v>20680</v>
+        <v>23276</v>
       </c>
       <c r="B285">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C285">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286">
-        <v>20682</v>
+        <v>23276</v>
       </c>
       <c r="B286">
         <v>1</v>
       </c>
       <c r="C286">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287">
-        <v>20977</v>
+        <v>23380</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C287">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288">
-        <v>21010</v>
+        <v>23380</v>
       </c>
       <c r="B288">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C288">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289">
-        <v>21712</v>
+        <v>23529</v>
       </c>
       <c r="B289">
         <v>3</v>
       </c>
       <c r="C289">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290">
-        <v>21712</v>
+        <v>23529</v>
       </c>
       <c r="B290">
         <v>1</v>
       </c>
       <c r="C290">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291">
-        <v>21781</v>
+        <v>23611</v>
       </c>
       <c r="B291">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C291">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292">
-        <v>21798</v>
+        <v>23611</v>
       </c>
       <c r="B292">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C292">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293">
-        <v>21946</v>
+        <v>23660</v>
       </c>
       <c r="B293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C293">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294">
-        <v>22316</v>
+        <v>24120</v>
       </c>
       <c r="B294">
         <v>3</v>
       </c>
       <c r="C294">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295">
-        <v>22316</v>
+        <v>24120</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -3633,189 +3633,167 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296">
-        <v>22325</v>
+        <v>24127</v>
       </c>
       <c r="B296">
         <v>1</v>
       </c>
       <c r="C296">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297">
-        <v>22326</v>
+        <v>24127</v>
       </c>
       <c r="B297">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C297">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298">
-        <v>22327</v>
+        <v>24243</v>
       </c>
       <c r="B298">
         <v>1</v>
       </c>
       <c r="C298">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299">
-        <v>22565</v>
+        <v>24243</v>
       </c>
       <c r="B299">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C299">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300">
-        <v>22565</v>
+        <v>24244</v>
       </c>
       <c r="B300">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C300">
-        <v>46</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301">
-        <v>22874</v>
+        <v>24244</v>
       </c>
       <c r="B301">
         <v>3</v>
       </c>
       <c r="C301">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302">
-        <v>22874</v>
+        <v>24247</v>
       </c>
       <c r="B302">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C302">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303">
-        <v>22973</v>
+        <v>24247</v>
       </c>
       <c r="B303">
         <v>1</v>
       </c>
       <c r="C303">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304">
-        <v>23335</v>
+        <v>24248</v>
       </c>
       <c r="B304">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C304">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305">
-        <v>23335</v>
+        <v>24248</v>
       </c>
       <c r="B305">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C305">
-        <v>150</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306">
-        <v>23599</v>
+        <v>24669</v>
       </c>
       <c r="B306">
         <v>1</v>
       </c>
       <c r="C306">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307">
-        <v>23599</v>
+        <v>24723</v>
       </c>
       <c r="B307">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C307">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308">
-        <v>23920</v>
+        <v>24732</v>
       </c>
       <c r="B308">
         <v>2</v>
       </c>
       <c r="C308">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309">
-        <v>23994</v>
+        <v>25341</v>
       </c>
       <c r="B309">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C309">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310">
-        <v>23994</v>
+        <v>25341</v>
       </c>
       <c r="B310">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C310">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3">
-      <c r="A311">
-        <v>24256</v>
-      </c>
-      <c r="B311">
-        <v>1</v>
-      </c>
-      <c r="C311">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3">
-      <c r="A312">
-        <v>24258</v>
-      </c>
-      <c r="B312">
-        <v>1</v>
-      </c>
-      <c r="C312">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/cart_rules_1125_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/cart_rules_1125_chunk_1.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C310"/>
+  <dimension ref="A1:C470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,172 +399,172 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>76</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>66</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>205</v>
+        <v>142</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>224</v>
+        <v>145</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>305</v>
+        <v>146</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -575,835 +575,835 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>307</v>
+        <v>151</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>332</v>
+        <v>192</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>335</v>
+        <v>192</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>335</v>
+        <v>201</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>336</v>
+        <v>201</v>
       </c>
       <c r="B22">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>336</v>
+        <v>202</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>336</v>
+        <v>205</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>336</v>
+        <v>206</v>
       </c>
       <c r="B25">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>346</v>
+        <v>224</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>346</v>
+        <v>247</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>358</v>
+        <v>248</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>361</v>
+        <v>305</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29">
-        <v>67</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>362</v>
+        <v>307</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>409</v>
+        <v>333</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>417</v>
+        <v>333</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C33">
-        <v>150</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>418</v>
+        <v>335</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>448</v>
+        <v>335</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>479</v>
+        <v>336</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C36">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>515</v>
+        <v>336</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>515</v>
+        <v>336</v>
       </c>
       <c r="B38">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C38">
-        <v>52</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>523</v>
+        <v>336</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>583</v>
+        <v>346</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>590</v>
+        <v>346</v>
       </c>
       <c r="B41">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>590</v>
+        <v>358</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>590</v>
+        <v>361</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>590</v>
+        <v>362</v>
       </c>
       <c r="B44">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>942</v>
+        <v>382</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>942</v>
+        <v>409</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>975</v>
+        <v>411</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>975</v>
+        <v>413</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>990</v>
+        <v>414</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>1000</v>
+        <v>416</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>1049</v>
+        <v>418</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
       <c r="C51">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>1050</v>
+        <v>419</v>
       </c>
       <c r="B52">
         <v>2</v>
       </c>
       <c r="C52">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>1134</v>
+        <v>420</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>1163</v>
+        <v>421</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>1163</v>
+        <v>422</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>1309</v>
+        <v>448</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>1309</v>
+        <v>479</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>1407</v>
+        <v>515</v>
       </c>
       <c r="B58">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>52</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>1407</v>
+        <v>515</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C59">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>1433</v>
+        <v>523</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>1446</v>
+        <v>583</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
       <c r="C61">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>1683</v>
+        <v>589</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>1880</v>
+        <v>590</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C63">
-        <v>6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>1880</v>
+        <v>590</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>2049</v>
+        <v>590</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C65">
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>2049</v>
+        <v>590</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C66">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>2054</v>
+        <v>823</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>2054</v>
+        <v>942</v>
       </c>
       <c r="B68">
         <v>3</v>
       </c>
       <c r="C68">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>2055</v>
+        <v>942</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>2055</v>
+        <v>957</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>2057</v>
+        <v>958</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>2057</v>
+        <v>965</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>2108</v>
+        <v>965</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>2108</v>
+        <v>975</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>2225</v>
+        <v>975</v>
       </c>
       <c r="B75">
         <v>3</v>
       </c>
       <c r="C75">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>2225</v>
+        <v>990</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>2280</v>
+        <v>1049</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>2280</v>
+        <v>1050</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C78">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>2322</v>
+        <v>1054</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C79">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>2327</v>
+        <v>1054</v>
       </c>
       <c r="B80">
         <v>2</v>
       </c>
       <c r="C80">
-        <v>150</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>2369</v>
+        <v>1124</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>2369</v>
+        <v>1134</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C82">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>2421</v>
+        <v>1163</v>
       </c>
       <c r="B83">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C83">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>2421</v>
+        <v>1163</v>
       </c>
       <c r="B84">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>132</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>2423</v>
+        <v>1407</v>
       </c>
       <c r="B85">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C85">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>2423</v>
+        <v>1407</v>
       </c>
       <c r="B86">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="C86">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>2492</v>
+        <v>1433</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>2726</v>
+        <v>1446</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>2726</v>
+        <v>1490</v>
       </c>
       <c r="B89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>2729</v>
+        <v>1504</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>2729</v>
+        <v>1683</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>2730</v>
+        <v>1703</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>2730</v>
+        <v>1880</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C93">
         <v>7</v>
@@ -1411,51 +1411,51 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>2734</v>
+        <v>1880</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C94">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>2734</v>
+        <v>2049</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>2736</v>
+        <v>2049</v>
       </c>
       <c r="B96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C96">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>2736</v>
+        <v>2050</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>2821</v>
+        <v>2050</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -1466,293 +1466,293 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>2821</v>
+        <v>2054</v>
       </c>
       <c r="B99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C99">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>2878</v>
+        <v>2054</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C100">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>2879</v>
+        <v>2055</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>2935</v>
+        <v>2055</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C102">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>2992</v>
+        <v>2057</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C103">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>2992</v>
+        <v>2057</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C104">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>3079</v>
+        <v>2104</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>3079</v>
+        <v>2104</v>
       </c>
       <c r="B106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C106">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>3143</v>
+        <v>2105</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>74</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>3143</v>
+        <v>2105</v>
       </c>
       <c r="B108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C108">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>3257</v>
+        <v>2108</v>
       </c>
       <c r="B109">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C109">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>3258</v>
+        <v>2108</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>3258</v>
+        <v>2225</v>
       </c>
       <c r="B111">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C111">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>3387</v>
+        <v>2225</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
       <c r="C112">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>3429</v>
+        <v>2280</v>
       </c>
       <c r="B113">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>3429</v>
+        <v>2280</v>
       </c>
       <c r="B114">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C114">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>3429</v>
+        <v>2322</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>3429</v>
+        <v>2335</v>
       </c>
       <c r="B116">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C116">
-        <v>111</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>3430</v>
+        <v>2335</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>3430</v>
+        <v>2369</v>
       </c>
       <c r="B118">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C118">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>3430</v>
+        <v>2369</v>
       </c>
       <c r="B119">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C119">
-        <v>150</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>3430</v>
+        <v>2421</v>
       </c>
       <c r="B120">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="C120">
-        <v>14</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>3976</v>
+        <v>2421</v>
       </c>
       <c r="B121">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C121">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>3976</v>
+        <v>2423</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>3983</v>
+        <v>2423</v>
       </c>
       <c r="B123">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="C123">
-        <v>12</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>3983</v>
+        <v>2492</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>3985</v>
+        <v>2726</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -1763,95 +1763,95 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>3985</v>
+        <v>2726</v>
       </c>
       <c r="B126">
         <v>3</v>
       </c>
       <c r="C126">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>4232</v>
+        <v>2728</v>
       </c>
       <c r="B127">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="C127">
-        <v>74</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>4232</v>
+        <v>2728</v>
       </c>
       <c r="B128">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C128">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>4354</v>
+        <v>2729</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C129">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>5341</v>
+        <v>2729</v>
       </c>
       <c r="B130">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C130">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>5341</v>
+        <v>2730</v>
       </c>
       <c r="B131">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C131">
-        <v>69</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>5341</v>
+        <v>2730</v>
       </c>
       <c r="B132">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C132">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>5341</v>
+        <v>2734</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C133">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>5811</v>
+        <v>2734</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -1862,711 +1862,711 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>5811</v>
+        <v>2775</v>
       </c>
       <c r="B135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C135">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>5812</v>
+        <v>2776</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>74</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>5812</v>
+        <v>2821</v>
       </c>
       <c r="B137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C137">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>5813</v>
+        <v>2821</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C138">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>5813</v>
+        <v>2878</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C139">
-        <v>150</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>5831</v>
+        <v>2879</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
       <c r="C140">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>5831</v>
+        <v>2916</v>
       </c>
       <c r="B141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C141">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>6098</v>
+        <v>2935</v>
       </c>
       <c r="B142">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C142">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>6098</v>
+        <v>2992</v>
       </c>
       <c r="B143">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="C143">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>6158</v>
+        <v>2992</v>
       </c>
       <c r="B144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C144">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>6293</v>
+        <v>3071</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
       <c r="C145">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>6496</v>
+        <v>3071</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C146">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>6497</v>
+        <v>3079</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C147">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>6575</v>
+        <v>3079</v>
       </c>
       <c r="B148">
         <v>1</v>
       </c>
       <c r="C148">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>6575</v>
+        <v>3143</v>
       </c>
       <c r="B149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C149">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>6805</v>
+        <v>3143</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C150">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>6935</v>
+        <v>3258</v>
       </c>
       <c r="B151">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C151">
-        <v>150</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>6936</v>
+        <v>3258</v>
       </c>
       <c r="B152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C152">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>7004</v>
+        <v>3387</v>
       </c>
       <c r="B153">
         <v>1</v>
       </c>
       <c r="C153">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>7084</v>
+        <v>3429</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>7084</v>
+        <v>3429</v>
       </c>
       <c r="B155">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C155">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>7324</v>
+        <v>3429</v>
       </c>
       <c r="B156">
         <v>1</v>
       </c>
       <c r="C156">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>7558</v>
+        <v>3429</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C157">
-        <v>8</v>
+        <v>133</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>7573</v>
+        <v>3450</v>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
       <c r="C158">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>8023</v>
+        <v>3475</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C159">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>8356</v>
+        <v>3477</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C160">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>8363</v>
+        <v>3478</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C161">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>8364</v>
+        <v>3670</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C162">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>8557</v>
+        <v>3673</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>8557</v>
+        <v>3896</v>
       </c>
       <c r="B164">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C164">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>8659</v>
+        <v>3896</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C165">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>8672</v>
+        <v>3934</v>
       </c>
       <c r="B166">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C166">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>8675</v>
+        <v>3976</v>
       </c>
       <c r="B167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C167">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>8676</v>
+        <v>3976</v>
       </c>
       <c r="B168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C168">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>8754</v>
+        <v>3983</v>
       </c>
       <c r="B169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C169">
-        <v>127</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>8754</v>
+        <v>3983</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C170">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>8853</v>
+        <v>3985</v>
       </c>
       <c r="B171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C171">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>8907</v>
+        <v>3985</v>
       </c>
       <c r="B172">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C172">
-        <v>46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>8907</v>
+        <v>4232</v>
       </c>
       <c r="B173">
         <v>29</v>
       </c>
       <c r="C173">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>8923</v>
+        <v>4232</v>
       </c>
       <c r="B174">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="C174">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>8923</v>
+        <v>4354</v>
       </c>
       <c r="B175">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C175">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>9069</v>
+        <v>4592</v>
       </c>
       <c r="B176">
         <v>1</v>
       </c>
       <c r="C176">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>9153</v>
+        <v>4592</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C177">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>9153</v>
+        <v>4926</v>
       </c>
       <c r="B178">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C178">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>9153</v>
+        <v>5080</v>
       </c>
       <c r="B179">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C179">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>9182</v>
+        <v>5208</v>
       </c>
       <c r="B180">
         <v>1</v>
       </c>
       <c r="C180">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>9296</v>
+        <v>5208</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C181">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>9507</v>
+        <v>5209</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>9507</v>
+        <v>5209</v>
       </c>
       <c r="B183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C183">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>9608</v>
+        <v>5340</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C184">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>9613</v>
+        <v>5340</v>
       </c>
       <c r="B185">
         <v>1</v>
       </c>
       <c r="C185">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>9691</v>
+        <v>5341</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C186">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>9778</v>
+        <v>5341</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C187">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>9780</v>
+        <v>5341</v>
       </c>
       <c r="B188">
         <v>1</v>
       </c>
       <c r="C188">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>9783</v>
+        <v>5341</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C189">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>9784</v>
+        <v>5408</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C190">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>9785</v>
+        <v>5408</v>
       </c>
       <c r="B191">
         <v>1</v>
       </c>
       <c r="C191">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>9786</v>
+        <v>5513</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C192">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>9840</v>
+        <v>5729</v>
       </c>
       <c r="B193">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C193">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>9840</v>
+        <v>5730</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C194">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>9960</v>
+        <v>5734</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C195">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>9960</v>
+        <v>5737</v>
       </c>
       <c r="B196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C196">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>10093</v>
+        <v>5811</v>
       </c>
       <c r="B197">
         <v>3</v>
       </c>
       <c r="C197">
-        <v>58</v>
+        <v>150</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>10093</v>
+        <v>5811</v>
       </c>
       <c r="B198">
         <v>1</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>10149</v>
+        <v>5812</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -2577,87 +2577,87 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>10149</v>
+        <v>5812</v>
       </c>
       <c r="B200">
         <v>3</v>
       </c>
       <c r="C200">
-        <v>78</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>10170</v>
+        <v>5831</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C201">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>10254</v>
+        <v>5831</v>
       </c>
       <c r="B202">
         <v>1</v>
       </c>
       <c r="C202">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>10410</v>
+        <v>6097</v>
       </c>
       <c r="B203">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C203">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>10410</v>
+        <v>6097</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C204">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>10448</v>
+        <v>6098</v>
       </c>
       <c r="B205">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C205">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>10448</v>
+        <v>6098</v>
       </c>
       <c r="B206">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C206">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>10450</v>
+        <v>6293</v>
       </c>
       <c r="B207">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C207">
         <v>36</v>
@@ -2665,175 +2665,175 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>10450</v>
+        <v>6494</v>
       </c>
       <c r="B208">
         <v>1</v>
       </c>
       <c r="C208">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>10452</v>
+        <v>6496</v>
       </c>
       <c r="B209">
         <v>1</v>
       </c>
       <c r="C209">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>10452</v>
+        <v>6497</v>
       </c>
       <c r="B210">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C210">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>10455</v>
+        <v>6575</v>
       </c>
       <c r="B211">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C211">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>10574</v>
+        <v>6575</v>
       </c>
       <c r="B212">
         <v>1</v>
       </c>
       <c r="C212">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>10574</v>
+        <v>6805</v>
       </c>
       <c r="B213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C213">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>10993</v>
+        <v>6935</v>
       </c>
       <c r="B214">
         <v>2</v>
       </c>
       <c r="C214">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>11183</v>
+        <v>6936</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C215">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>11271</v>
+        <v>7004</v>
       </c>
       <c r="B216">
         <v>1</v>
       </c>
       <c r="C216">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>11403</v>
+        <v>7084</v>
       </c>
       <c r="B217">
         <v>1</v>
       </c>
       <c r="C217">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>11450</v>
+        <v>7084</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C218">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>11450</v>
+        <v>7324</v>
       </c>
       <c r="B219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C219">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>11504</v>
+        <v>7520</v>
       </c>
       <c r="B220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C220">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>11611</v>
+        <v>7558</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C221">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>11765</v>
+        <v>7573</v>
       </c>
       <c r="B222">
         <v>1</v>
       </c>
       <c r="C222">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>11775</v>
+        <v>7706</v>
       </c>
       <c r="B223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C223">
         <v>6</v>
@@ -2841,40 +2841,40 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>11837</v>
+        <v>7885</v>
       </c>
       <c r="B224">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C224">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>11838</v>
+        <v>7885</v>
       </c>
       <c r="B225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C225">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>11846</v>
+        <v>7887</v>
       </c>
       <c r="B226">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C226">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>11846</v>
+        <v>7887</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -2885,744 +2885,744 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>11868</v>
+        <v>8023</v>
       </c>
       <c r="B228">
         <v>1</v>
       </c>
       <c r="C228">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229">
-        <v>11868</v>
+        <v>8033</v>
       </c>
       <c r="B229">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C229">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230">
-        <v>11886</v>
+        <v>8033</v>
       </c>
       <c r="B230">
         <v>1</v>
       </c>
       <c r="C230">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231">
-        <v>11886</v>
+        <v>8050</v>
       </c>
       <c r="B231">
         <v>2</v>
       </c>
       <c r="C231">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232">
-        <v>12146</v>
+        <v>8050</v>
       </c>
       <c r="B232">
         <v>1</v>
       </c>
       <c r="C232">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233">
-        <v>12150</v>
+        <v>8106</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C233">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234">
-        <v>12239</v>
+        <v>8106</v>
       </c>
       <c r="B234">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C234">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235">
-        <v>12239</v>
+        <v>8356</v>
       </c>
       <c r="B235">
         <v>1</v>
       </c>
       <c r="C235">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236">
-        <v>12241</v>
+        <v>8363</v>
       </c>
       <c r="B236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C236">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237">
-        <v>12241</v>
+        <v>8364</v>
       </c>
       <c r="B237">
         <v>1</v>
       </c>
       <c r="C237">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238">
-        <v>12344</v>
+        <v>8557</v>
       </c>
       <c r="B238">
         <v>1</v>
       </c>
       <c r="C238">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239">
-        <v>12492</v>
+        <v>8557</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C239">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240">
-        <v>12492</v>
+        <v>8659</v>
       </c>
       <c r="B240">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C240">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241">
-        <v>12546</v>
+        <v>8672</v>
       </c>
       <c r="B241">
         <v>2</v>
       </c>
       <c r="C241">
-        <v>6</v>
+        <v>66</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242">
-        <v>12546</v>
+        <v>8675</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C242">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243">
-        <v>12563</v>
+        <v>8676</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C243">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244">
-        <v>12571</v>
+        <v>8677</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C244">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245">
-        <v>12573</v>
+        <v>8677</v>
       </c>
       <c r="B245">
         <v>1</v>
       </c>
       <c r="C245">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246">
-        <v>12585</v>
+        <v>8754</v>
       </c>
       <c r="B246">
         <v>1</v>
       </c>
       <c r="C246">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247">
-        <v>12585</v>
+        <v>8754</v>
       </c>
       <c r="B247">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C247">
-        <v>12</v>
+        <v>150</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248">
-        <v>12653</v>
+        <v>8853</v>
       </c>
       <c r="B248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C248">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249">
-        <v>12721</v>
+        <v>8907</v>
       </c>
       <c r="B249">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C249">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250">
-        <v>12923</v>
+        <v>8907</v>
       </c>
       <c r="B250">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C250">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251">
-        <v>12925</v>
+        <v>8915</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C251">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252">
-        <v>13024</v>
+        <v>8923</v>
       </c>
       <c r="B252">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C252">
-        <v>10</v>
+        <v>123</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253">
-        <v>13024</v>
+        <v>8923</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C253">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254">
-        <v>13025</v>
+        <v>8926</v>
       </c>
       <c r="B254">
         <v>1</v>
       </c>
       <c r="C254">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255">
-        <v>13025</v>
+        <v>8939</v>
       </c>
       <c r="B255">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C255">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256">
-        <v>13028</v>
+        <v>9069</v>
       </c>
       <c r="B256">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C256">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257">
-        <v>13037</v>
+        <v>9070</v>
       </c>
       <c r="B257">
         <v>1</v>
       </c>
       <c r="C257">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258">
-        <v>13037</v>
+        <v>9081</v>
       </c>
       <c r="B258">
         <v>3</v>
       </c>
       <c r="C258">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259">
-        <v>13401</v>
+        <v>9081</v>
       </c>
       <c r="B259">
         <v>1</v>
       </c>
       <c r="C259">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260">
-        <v>13401</v>
+        <v>9082</v>
       </c>
       <c r="B260">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C260">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261">
-        <v>13498</v>
+        <v>9082</v>
       </c>
       <c r="B261">
         <v>3</v>
       </c>
       <c r="C261">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262">
-        <v>13498</v>
+        <v>9083</v>
       </c>
       <c r="B262">
         <v>1</v>
       </c>
       <c r="C262">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263">
-        <v>13928</v>
+        <v>9083</v>
       </c>
       <c r="B263">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C263">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264">
-        <v>13928</v>
+        <v>9122</v>
       </c>
       <c r="B264">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C264">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265">
-        <v>14018</v>
+        <v>9122</v>
       </c>
       <c r="B265">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C265">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266">
-        <v>14018</v>
+        <v>9122</v>
       </c>
       <c r="B266">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C266">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267">
-        <v>14037</v>
+        <v>9149</v>
       </c>
       <c r="B267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C267">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268">
-        <v>14037</v>
+        <v>9149</v>
       </c>
       <c r="B268">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C268">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269">
-        <v>19685</v>
+        <v>9149</v>
       </c>
       <c r="B269">
         <v>1</v>
       </c>
       <c r="C269">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270">
-        <v>19687</v>
+        <v>9153</v>
       </c>
       <c r="B270">
         <v>1</v>
       </c>
       <c r="C270">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271">
-        <v>19966</v>
+        <v>9153</v>
       </c>
       <c r="B271">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C271">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272">
-        <v>19966</v>
+        <v>9153</v>
       </c>
       <c r="B272">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C272">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273">
-        <v>20680</v>
+        <v>9182</v>
       </c>
       <c r="B273">
         <v>1</v>
       </c>
       <c r="C273">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274">
-        <v>20682</v>
+        <v>9296</v>
       </c>
       <c r="B274">
         <v>1</v>
       </c>
       <c r="C274">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275">
-        <v>21712</v>
+        <v>9459</v>
       </c>
       <c r="B275">
         <v>1</v>
       </c>
       <c r="C275">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276">
-        <v>21712</v>
+        <v>9491</v>
       </c>
       <c r="B276">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C276">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277">
-        <v>21798</v>
+        <v>9491</v>
       </c>
       <c r="B277">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C277">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278">
-        <v>21946</v>
+        <v>9507</v>
       </c>
       <c r="B278">
         <v>1</v>
       </c>
       <c r="C278">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279">
-        <v>22316</v>
+        <v>9507</v>
       </c>
       <c r="B279">
         <v>3</v>
       </c>
       <c r="C279">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280">
-        <v>22316</v>
+        <v>9608</v>
       </c>
       <c r="B280">
         <v>1</v>
       </c>
       <c r="C280">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281">
-        <v>22317</v>
+        <v>9613</v>
       </c>
       <c r="B281">
         <v>1</v>
       </c>
       <c r="C281">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282">
-        <v>22317</v>
+        <v>9691</v>
       </c>
       <c r="B282">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C282">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283">
-        <v>22363</v>
+        <v>9778</v>
       </c>
       <c r="B283">
         <v>1</v>
       </c>
       <c r="C283">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284">
-        <v>22572</v>
+        <v>9780</v>
       </c>
       <c r="B284">
         <v>1</v>
       </c>
       <c r="C284">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285">
-        <v>23276</v>
+        <v>9783</v>
       </c>
       <c r="B285">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C285">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286">
-        <v>23276</v>
+        <v>9784</v>
       </c>
       <c r="B286">
         <v>1</v>
       </c>
       <c r="C286">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287">
-        <v>23380</v>
+        <v>9785</v>
       </c>
       <c r="B287">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C287">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288">
-        <v>23380</v>
+        <v>9786</v>
       </c>
       <c r="B288">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C288">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289">
-        <v>23529</v>
+        <v>9796</v>
       </c>
       <c r="B289">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C289">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290">
-        <v>23529</v>
+        <v>9796</v>
       </c>
       <c r="B290">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C290">
-        <v>2</v>
+        <v>110</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291">
-        <v>23611</v>
+        <v>9840</v>
       </c>
       <c r="B291">
         <v>1</v>
       </c>
       <c r="C291">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292">
-        <v>23611</v>
+        <v>9840</v>
       </c>
       <c r="B292">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C292">
-        <v>14</v>
+        <v>96</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293">
-        <v>23660</v>
+        <v>9960</v>
       </c>
       <c r="B293">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C293">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294">
-        <v>24120</v>
+        <v>9960</v>
       </c>
       <c r="B294">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C294">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295">
-        <v>24120</v>
+        <v>10093</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -3633,98 +3633,98 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296">
-        <v>24127</v>
+        <v>10093</v>
       </c>
       <c r="B296">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C296">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297">
-        <v>24127</v>
+        <v>10124</v>
       </c>
       <c r="B297">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C297">
-        <v>19</v>
+        <v>110</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298">
-        <v>24243</v>
+        <v>10254</v>
       </c>
       <c r="B298">
         <v>1</v>
       </c>
       <c r="C298">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299">
-        <v>24243</v>
+        <v>10407</v>
       </c>
       <c r="B299">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C299">
-        <v>12</v>
+        <v>135</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300">
-        <v>24244</v>
+        <v>10407</v>
       </c>
       <c r="B300">
         <v>1</v>
       </c>
       <c r="C300">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301">
-        <v>24244</v>
+        <v>10409</v>
       </c>
       <c r="B301">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C301">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302">
-        <v>24247</v>
+        <v>10409</v>
       </c>
       <c r="B302">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C302">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303">
-        <v>24247</v>
+        <v>10410</v>
       </c>
       <c r="B303">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C303">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304">
-        <v>24248</v>
+        <v>10410</v>
       </c>
       <c r="B304">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C304">
         <v>6</v>
@@ -3732,68 +3732,1828 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305">
-        <v>24248</v>
+        <v>10411</v>
       </c>
       <c r="B305">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C305">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306">
-        <v>24669</v>
+        <v>10411</v>
       </c>
       <c r="B306">
         <v>1</v>
       </c>
       <c r="C306">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307">
-        <v>24723</v>
+        <v>10446</v>
       </c>
       <c r="B307">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C307">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308">
-        <v>24732</v>
+        <v>10446</v>
       </c>
       <c r="B308">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C308">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309">
-        <v>25341</v>
+        <v>10447</v>
       </c>
       <c r="B309">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C309">
-        <v>2</v>
+        <v>86</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310">
+        <v>10447</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+      <c r="C310">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311">
+        <v>10448</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+      <c r="C311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312">
+        <v>10448</v>
+      </c>
+      <c r="B312">
+        <v>10</v>
+      </c>
+      <c r="C312">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313">
+        <v>10449</v>
+      </c>
+      <c r="B313">
+        <v>10</v>
+      </c>
+      <c r="C313">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314">
+        <v>10449</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="C314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315">
+        <v>10450</v>
+      </c>
+      <c r="B315">
+        <v>10</v>
+      </c>
+      <c r="C315">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316">
+        <v>10450</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
+      <c r="C316">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317">
+        <v>10452</v>
+      </c>
+      <c r="B317">
+        <v>10</v>
+      </c>
+      <c r="C317">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318">
+        <v>10452</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+      <c r="C318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319">
+        <v>10453</v>
+      </c>
+      <c r="B319">
+        <v>10</v>
+      </c>
+      <c r="C319">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320">
+        <v>10453</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+      <c r="C320">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321">
+        <v>10454</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+      <c r="C321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322">
+        <v>10454</v>
+      </c>
+      <c r="B322">
+        <v>10</v>
+      </c>
+      <c r="C322">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323">
+        <v>10455</v>
+      </c>
+      <c r="B323">
+        <v>29</v>
+      </c>
+      <c r="C323">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324">
+        <v>10468</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325">
+        <v>10468</v>
+      </c>
+      <c r="B325">
+        <v>10</v>
+      </c>
+      <c r="C325">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326">
+        <v>10574</v>
+      </c>
+      <c r="B326">
+        <v>3</v>
+      </c>
+      <c r="C326">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327">
+        <v>10574</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+      <c r="C327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328">
+        <v>10580</v>
+      </c>
+      <c r="B328">
+        <v>3</v>
+      </c>
+      <c r="C328">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329">
+        <v>10580</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+      <c r="C329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330">
+        <v>10596</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
+      <c r="C330">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331">
+        <v>10596</v>
+      </c>
+      <c r="B331">
+        <v>3</v>
+      </c>
+      <c r="C331">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332">
+        <v>10597</v>
+      </c>
+      <c r="B332">
+        <v>3</v>
+      </c>
+      <c r="C332">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333">
+        <v>10597</v>
+      </c>
+      <c r="B333">
+        <v>1</v>
+      </c>
+      <c r="C333">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334">
+        <v>10599</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+      <c r="C334">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335">
+        <v>10599</v>
+      </c>
+      <c r="B335">
+        <v>3</v>
+      </c>
+      <c r="C335">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336">
+        <v>10897</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+      <c r="C336">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337">
+        <v>10993</v>
+      </c>
+      <c r="B337">
+        <v>2</v>
+      </c>
+      <c r="C337">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338">
+        <v>11160</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+      <c r="C338">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339">
+        <v>11164</v>
+      </c>
+      <c r="B339">
+        <v>1</v>
+      </c>
+      <c r="C339">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340">
+        <v>11183</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+      <c r="C340">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341">
+        <v>11234</v>
+      </c>
+      <c r="B341">
+        <v>2</v>
+      </c>
+      <c r="C341">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342">
+        <v>11271</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+      <c r="C342">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343">
+        <v>11288</v>
+      </c>
+      <c r="B343">
+        <v>2</v>
+      </c>
+      <c r="C343">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344">
+        <v>11290</v>
+      </c>
+      <c r="B344">
+        <v>2</v>
+      </c>
+      <c r="C344">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345">
+        <v>11337</v>
+      </c>
+      <c r="B345">
+        <v>7</v>
+      </c>
+      <c r="C345">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346">
+        <v>11337</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+      <c r="C346">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347">
+        <v>11403</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+      <c r="C347">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348">
+        <v>11450</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+      <c r="C348">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349">
+        <v>11450</v>
+      </c>
+      <c r="B349">
+        <v>2</v>
+      </c>
+      <c r="C349">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350">
+        <v>11491</v>
+      </c>
+      <c r="B350">
+        <v>2</v>
+      </c>
+      <c r="C350">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351">
+        <v>11504</v>
+      </c>
+      <c r="B351">
+        <v>2</v>
+      </c>
+      <c r="C351">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352">
+        <v>11611</v>
+      </c>
+      <c r="B352">
+        <v>2</v>
+      </c>
+      <c r="C352">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353">
+        <v>11677</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+      <c r="C353">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354">
+        <v>11765</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+      <c r="C354">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355">
+        <v>11837</v>
+      </c>
+      <c r="B355">
+        <v>2</v>
+      </c>
+      <c r="C355">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356">
+        <v>11846</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="C356">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357">
+        <v>11846</v>
+      </c>
+      <c r="B357">
+        <v>3</v>
+      </c>
+      <c r="C357">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358">
+        <v>11868</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+      <c r="C358">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359">
+        <v>11868</v>
+      </c>
+      <c r="B359">
+        <v>3</v>
+      </c>
+      <c r="C359">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360">
+        <v>11886</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+      <c r="C360">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361">
+        <v>11886</v>
+      </c>
+      <c r="B361">
+        <v>2</v>
+      </c>
+      <c r="C361">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362">
+        <v>11952</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+      <c r="C362">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363">
+        <v>12010</v>
+      </c>
+      <c r="B363">
+        <v>3</v>
+      </c>
+      <c r="C363">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364">
+        <v>12010</v>
+      </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
+      <c r="C364">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365">
+        <v>12146</v>
+      </c>
+      <c r="B365">
+        <v>1</v>
+      </c>
+      <c r="C365">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366">
+        <v>12150</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+      <c r="C366">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367">
+        <v>12239</v>
+      </c>
+      <c r="B367">
+        <v>3</v>
+      </c>
+      <c r="C367">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368">
+        <v>12239</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+      <c r="C368">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369">
+        <v>12241</v>
+      </c>
+      <c r="B369">
+        <v>3</v>
+      </c>
+      <c r="C369">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370">
+        <v>12241</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+      <c r="C370">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371">
+        <v>12492</v>
+      </c>
+      <c r="B371">
+        <v>1</v>
+      </c>
+      <c r="C371">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372">
+        <v>12492</v>
+      </c>
+      <c r="B372">
+        <v>3</v>
+      </c>
+      <c r="C372">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373">
+        <v>12563</v>
+      </c>
+      <c r="B373">
+        <v>1</v>
+      </c>
+      <c r="C373">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374">
+        <v>12571</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+      <c r="C374">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375">
+        <v>12573</v>
+      </c>
+      <c r="B375">
+        <v>1</v>
+      </c>
+      <c r="C375">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376">
+        <v>12577</v>
+      </c>
+      <c r="B376">
+        <v>3</v>
+      </c>
+      <c r="C376">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377">
+        <v>12577</v>
+      </c>
+      <c r="B377">
+        <v>1</v>
+      </c>
+      <c r="C377">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378">
+        <v>12585</v>
+      </c>
+      <c r="B378">
+        <v>3</v>
+      </c>
+      <c r="C378">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379">
+        <v>12585</v>
+      </c>
+      <c r="B379">
+        <v>1</v>
+      </c>
+      <c r="C379">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380">
+        <v>12653</v>
+      </c>
+      <c r="B380">
+        <v>1</v>
+      </c>
+      <c r="C380">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381">
+        <v>12721</v>
+      </c>
+      <c r="B381">
+        <v>2</v>
+      </c>
+      <c r="C381">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382">
+        <v>12764</v>
+      </c>
+      <c r="B382">
+        <v>1</v>
+      </c>
+      <c r="C382">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383">
+        <v>12764</v>
+      </c>
+      <c r="B383">
+        <v>2</v>
+      </c>
+      <c r="C383">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384">
+        <v>12791</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+      <c r="C384">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385">
+        <v>12791</v>
+      </c>
+      <c r="B385">
+        <v>2</v>
+      </c>
+      <c r="C385">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386">
+        <v>12873</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+      <c r="C386">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387">
+        <v>12923</v>
+      </c>
+      <c r="B387">
+        <v>1</v>
+      </c>
+      <c r="C387">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388">
+        <v>12925</v>
+      </c>
+      <c r="B388">
+        <v>1</v>
+      </c>
+      <c r="C388">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389">
+        <v>13024</v>
+      </c>
+      <c r="B389">
+        <v>1</v>
+      </c>
+      <c r="C389">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390">
+        <v>13024</v>
+      </c>
+      <c r="B390">
+        <v>3</v>
+      </c>
+      <c r="C390">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391">
+        <v>13025</v>
+      </c>
+      <c r="B391">
+        <v>3</v>
+      </c>
+      <c r="C391">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392">
+        <v>13025</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+      <c r="C392">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393">
+        <v>13028</v>
+      </c>
+      <c r="B393">
+        <v>3</v>
+      </c>
+      <c r="C393">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394">
+        <v>13036</v>
+      </c>
+      <c r="B394">
+        <v>1</v>
+      </c>
+      <c r="C394">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395">
+        <v>13036</v>
+      </c>
+      <c r="B395">
+        <v>3</v>
+      </c>
+      <c r="C395">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396">
+        <v>13037</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+      <c r="C396">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397">
+        <v>13037</v>
+      </c>
+      <c r="B397">
+        <v>3</v>
+      </c>
+      <c r="C397">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398">
+        <v>13401</v>
+      </c>
+      <c r="B398">
+        <v>3</v>
+      </c>
+      <c r="C398">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399">
+        <v>13401</v>
+      </c>
+      <c r="B399">
+        <v>1</v>
+      </c>
+      <c r="C399">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400">
+        <v>13498</v>
+      </c>
+      <c r="B400">
+        <v>3</v>
+      </c>
+      <c r="C400">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401">
+        <v>13498</v>
+      </c>
+      <c r="B401">
+        <v>1</v>
+      </c>
+      <c r="C401">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402">
+        <v>13928</v>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+      <c r="C402">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403">
+        <v>13928</v>
+      </c>
+      <c r="B403">
+        <v>2</v>
+      </c>
+      <c r="C403">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404">
+        <v>14018</v>
+      </c>
+      <c r="B404">
+        <v>3</v>
+      </c>
+      <c r="C404">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405">
+        <v>14018</v>
+      </c>
+      <c r="B405">
+        <v>1</v>
+      </c>
+      <c r="C405">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406">
+        <v>14037</v>
+      </c>
+      <c r="B406">
+        <v>3</v>
+      </c>
+      <c r="C406">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407">
+        <v>14037</v>
+      </c>
+      <c r="B407">
+        <v>1</v>
+      </c>
+      <c r="C407">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408">
+        <v>18964</v>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+      <c r="C408">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409">
+        <v>19685</v>
+      </c>
+      <c r="B409">
+        <v>1</v>
+      </c>
+      <c r="C409">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410">
+        <v>19687</v>
+      </c>
+      <c r="B410">
+        <v>1</v>
+      </c>
+      <c r="C410">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411">
+        <v>19966</v>
+      </c>
+      <c r="B411">
+        <v>25</v>
+      </c>
+      <c r="C411">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412">
+        <v>19966</v>
+      </c>
+      <c r="B412">
+        <v>29</v>
+      </c>
+      <c r="C412">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413">
+        <v>20680</v>
+      </c>
+      <c r="B413">
+        <v>1</v>
+      </c>
+      <c r="C413">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414">
+        <v>20682</v>
+      </c>
+      <c r="B414">
+        <v>1</v>
+      </c>
+      <c r="C414">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415">
+        <v>20966</v>
+      </c>
+      <c r="B415">
+        <v>1</v>
+      </c>
+      <c r="C415">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416">
+        <v>20966</v>
+      </c>
+      <c r="B416">
+        <v>3</v>
+      </c>
+      <c r="C416">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417">
+        <v>20969</v>
+      </c>
+      <c r="B417">
+        <v>1</v>
+      </c>
+      <c r="C417">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418">
+        <v>20969</v>
+      </c>
+      <c r="B418">
+        <v>3</v>
+      </c>
+      <c r="C418">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419">
+        <v>21059</v>
+      </c>
+      <c r="B419">
+        <v>1</v>
+      </c>
+      <c r="C419">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420">
+        <v>21712</v>
+      </c>
+      <c r="B420">
+        <v>1</v>
+      </c>
+      <c r="C420">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421">
+        <v>21712</v>
+      </c>
+      <c r="B421">
+        <v>3</v>
+      </c>
+      <c r="C421">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422">
+        <v>21798</v>
+      </c>
+      <c r="B422">
+        <v>1</v>
+      </c>
+      <c r="C422">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423">
+        <v>21946</v>
+      </c>
+      <c r="B423">
+        <v>1</v>
+      </c>
+      <c r="C423">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424">
+        <v>22289</v>
+      </c>
+      <c r="B424">
+        <v>1</v>
+      </c>
+      <c r="C424">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425">
+        <v>22316</v>
+      </c>
+      <c r="B425">
+        <v>1</v>
+      </c>
+      <c r="C425">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426">
+        <v>22316</v>
+      </c>
+      <c r="B426">
+        <v>3</v>
+      </c>
+      <c r="C426">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427">
+        <v>22317</v>
+      </c>
+      <c r="B427">
+        <v>1</v>
+      </c>
+      <c r="C427">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428">
+        <v>22317</v>
+      </c>
+      <c r="B428">
+        <v>3</v>
+      </c>
+      <c r="C428">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429">
+        <v>22327</v>
+      </c>
+      <c r="B429">
+        <v>1</v>
+      </c>
+      <c r="C429">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430">
+        <v>22363</v>
+      </c>
+      <c r="B430">
+        <v>1</v>
+      </c>
+      <c r="C430">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431">
+        <v>22565</v>
+      </c>
+      <c r="B431">
+        <v>3</v>
+      </c>
+      <c r="C431">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432">
+        <v>22565</v>
+      </c>
+      <c r="B432">
+        <v>1</v>
+      </c>
+      <c r="C432">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433">
+        <v>22572</v>
+      </c>
+      <c r="B433">
+        <v>1</v>
+      </c>
+      <c r="C433">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434">
+        <v>23038</v>
+      </c>
+      <c r="B434">
+        <v>1</v>
+      </c>
+      <c r="C434">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435">
+        <v>23038</v>
+      </c>
+      <c r="B435">
+        <v>10</v>
+      </c>
+      <c r="C435">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436">
+        <v>23040</v>
+      </c>
+      <c r="B436">
+        <v>10</v>
+      </c>
+      <c r="C436">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437">
+        <v>23040</v>
+      </c>
+      <c r="B437">
+        <v>1</v>
+      </c>
+      <c r="C437">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438">
+        <v>23234</v>
+      </c>
+      <c r="B438">
+        <v>25</v>
+      </c>
+      <c r="C438">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439">
+        <v>23234</v>
+      </c>
+      <c r="B439">
+        <v>29</v>
+      </c>
+      <c r="C439">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440">
+        <v>23235</v>
+      </c>
+      <c r="B440">
+        <v>25</v>
+      </c>
+      <c r="C440">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441">
+        <v>23235</v>
+      </c>
+      <c r="B441">
+        <v>29</v>
+      </c>
+      <c r="C441">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442">
+        <v>23276</v>
+      </c>
+      <c r="B442">
+        <v>1</v>
+      </c>
+      <c r="C442">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443">
+        <v>23276</v>
+      </c>
+      <c r="B443">
+        <v>3</v>
+      </c>
+      <c r="C443">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444">
+        <v>23335</v>
+      </c>
+      <c r="B444">
+        <v>1</v>
+      </c>
+      <c r="C444">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445">
+        <v>23335</v>
+      </c>
+      <c r="B445">
+        <v>14</v>
+      </c>
+      <c r="C445">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446">
+        <v>23380</v>
+      </c>
+      <c r="B446">
+        <v>25</v>
+      </c>
+      <c r="C446">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447">
+        <v>23380</v>
+      </c>
+      <c r="B447">
+        <v>29</v>
+      </c>
+      <c r="C447">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448">
+        <v>23529</v>
+      </c>
+      <c r="B448">
+        <v>3</v>
+      </c>
+      <c r="C448">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449">
+        <v>23529</v>
+      </c>
+      <c r="B449">
+        <v>1</v>
+      </c>
+      <c r="C449">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450">
+        <v>23661</v>
+      </c>
+      <c r="B450">
+        <v>2</v>
+      </c>
+      <c r="C450">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451">
+        <v>23920</v>
+      </c>
+      <c r="B451">
+        <v>2</v>
+      </c>
+      <c r="C451">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452">
+        <v>24120</v>
+      </c>
+      <c r="B452">
+        <v>3</v>
+      </c>
+      <c r="C452">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453">
+        <v>24120</v>
+      </c>
+      <c r="B453">
+        <v>1</v>
+      </c>
+      <c r="C453">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454">
+        <v>24127</v>
+      </c>
+      <c r="B454">
+        <v>3</v>
+      </c>
+      <c r="C454">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455">
+        <v>24127</v>
+      </c>
+      <c r="B455">
+        <v>1</v>
+      </c>
+      <c r="C455">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456">
+        <v>24243</v>
+      </c>
+      <c r="B456">
+        <v>3</v>
+      </c>
+      <c r="C456">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457">
+        <v>24243</v>
+      </c>
+      <c r="B457">
+        <v>1</v>
+      </c>
+      <c r="C457">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458">
+        <v>24244</v>
+      </c>
+      <c r="B458">
+        <v>1</v>
+      </c>
+      <c r="C458">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459">
+        <v>24244</v>
+      </c>
+      <c r="B459">
+        <v>3</v>
+      </c>
+      <c r="C459">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460">
+        <v>24247</v>
+      </c>
+      <c r="B460">
+        <v>3</v>
+      </c>
+      <c r="C460">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461">
+        <v>24247</v>
+      </c>
+      <c r="B461">
+        <v>1</v>
+      </c>
+      <c r="C461">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462">
+        <v>24248</v>
+      </c>
+      <c r="B462">
+        <v>1</v>
+      </c>
+      <c r="C462">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463">
+        <v>24248</v>
+      </c>
+      <c r="B463">
+        <v>3</v>
+      </c>
+      <c r="C463">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464">
+        <v>24258</v>
+      </c>
+      <c r="B464">
+        <v>1</v>
+      </c>
+      <c r="C464">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465">
+        <v>24668</v>
+      </c>
+      <c r="B465">
+        <v>1</v>
+      </c>
+      <c r="C465">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466">
+        <v>24669</v>
+      </c>
+      <c r="B466">
+        <v>1</v>
+      </c>
+      <c r="C466">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467">
+        <v>24670</v>
+      </c>
+      <c r="B467">
+        <v>1</v>
+      </c>
+      <c r="C467">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468">
+        <v>24732</v>
+      </c>
+      <c r="B468">
+        <v>2</v>
+      </c>
+      <c r="C468">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469">
         <v>25341</v>
       </c>
-      <c r="B310">
-        <v>3</v>
-      </c>
-      <c r="C310">
-        <v>7</v>
+      <c r="B469">
+        <v>3</v>
+      </c>
+      <c r="C469">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470">
+        <v>25341</v>
+      </c>
+      <c r="B470">
+        <v>1</v>
+      </c>
+      <c r="C470">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
